--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H2">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I2">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J2">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>56.34873638403607</v>
+        <v>63.893683850172</v>
       </c>
       <c r="R2">
-        <v>56.34873638403607</v>
+        <v>255.574735400688</v>
       </c>
       <c r="S2">
-        <v>0.0001532522867576505</v>
+        <v>0.000141362798147391</v>
       </c>
       <c r="T2">
-        <v>0.0001532522867576505</v>
+        <v>6.628125919729257E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H3">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I3">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J3">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>4051.018100336159</v>
+        <v>4420.709806318299</v>
       </c>
       <c r="R3">
-        <v>4051.018100336159</v>
+        <v>26524.2588379098</v>
       </c>
       <c r="S3">
-        <v>0.01101759910536404</v>
+        <v>0.009780683635086464</v>
       </c>
       <c r="T3">
-        <v>0.01101759910536404</v>
+        <v>0.006878853937950101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H4">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I4">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J4">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>5674.824808738184</v>
+        <v>5897.289167321135</v>
       </c>
       <c r="R4">
-        <v>5674.824808738184</v>
+        <v>35383.73500392681</v>
       </c>
       <c r="S4">
-        <v>0.01543388431926859</v>
+        <v>0.01304756977437244</v>
       </c>
       <c r="T4">
-        <v>0.01543388431926859</v>
+        <v>0.009176488072996255</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H5">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I5">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J5">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>4303.998666841062</v>
+        <v>4544.455750609412</v>
       </c>
       <c r="R5">
-        <v>4303.998666841062</v>
+        <v>27266.73450365647</v>
       </c>
       <c r="S5">
-        <v>0.01170563317338453</v>
+        <v>0.01005446770716162</v>
       </c>
       <c r="T5">
-        <v>0.01170563317338453</v>
+        <v>0.007071409050926676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H6">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I6">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J6">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>152.7465278429597</v>
+        <v>197.9018360141241</v>
       </c>
       <c r="R6">
-        <v>152.7465278429597</v>
+        <v>1187.411016084744</v>
       </c>
       <c r="S6">
-        <v>0.000415426435238689</v>
+        <v>0.0004378516875481015</v>
       </c>
       <c r="T6">
-        <v>0.000415426435238689</v>
+        <v>0.0003079455299344961</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H7">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I7">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J7">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>922.8927711700989</v>
+        <v>948.203846124909</v>
       </c>
       <c r="R7">
-        <v>922.8927711700989</v>
+        <v>3792.815384499636</v>
       </c>
       <c r="S7">
-        <v>0.002510001762062446</v>
+        <v>0.002097871664696235</v>
       </c>
       <c r="T7">
-        <v>0.002510001762062446</v>
+        <v>0.0009836362705936798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H8">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J8">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>138.5308884931702</v>
+        <v>168.0400372254087</v>
       </c>
       <c r="R8">
-        <v>138.5308884931702</v>
+        <v>1008.240223352452</v>
       </c>
       <c r="S8">
-        <v>0.0003767640023630072</v>
+        <v>0.0003717833818860573</v>
       </c>
       <c r="T8">
-        <v>0.0003767640023630072</v>
+        <v>0.0002614790208914372</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H9">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J9">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>9959.249714434969</v>
+        <v>11626.44248465033</v>
       </c>
       <c r="R9">
-        <v>9959.249714434969</v>
+        <v>104637.9823618529</v>
       </c>
       <c r="S9">
-        <v>0.02708628251617796</v>
+        <v>0.02572314418407807</v>
       </c>
       <c r="T9">
-        <v>0.02708628251617796</v>
+        <v>0.02713702205319405</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H10">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J10">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>13951.30704333421</v>
+        <v>15509.83808555241</v>
       </c>
       <c r="R10">
-        <v>13951.30704333421</v>
+        <v>139588.5427699717</v>
       </c>
       <c r="S10">
-        <v>0.03794352535392103</v>
+        <v>0.03431503676839194</v>
       </c>
       <c r="T10">
-        <v>0.03794352535392103</v>
+        <v>0.03620116976665742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H11">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J11">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>10581.19130351661</v>
+        <v>11951.89363775544</v>
       </c>
       <c r="R11">
-        <v>10581.19130351661</v>
+        <v>107567.0427397989</v>
       </c>
       <c r="S11">
-        <v>0.02877778399203806</v>
+        <v>0.02644319478831491</v>
       </c>
       <c r="T11">
-        <v>0.02877778399203806</v>
+        <v>0.02789665038582554</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H12">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J12">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>375.5206163296815</v>
+        <v>520.4807406123697</v>
       </c>
       <c r="R12">
-        <v>375.5206163296815</v>
+        <v>4684.326665511327</v>
       </c>
       <c r="S12">
-        <v>0.00102130760812358</v>
+        <v>0.001151547530853363</v>
       </c>
       <c r="T12">
-        <v>0.00102130760812358</v>
+        <v>0.001214842575870313</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H13">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J13">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>2268.891261425664</v>
+        <v>2493.770901889803</v>
       </c>
       <c r="R13">
-        <v>2268.891261425664</v>
+        <v>14962.62541133882</v>
       </c>
       <c r="S13">
-        <v>0.006170728866893321</v>
+        <v>0.005517390943623552</v>
       </c>
       <c r="T13">
-        <v>0.006170728866893321</v>
+        <v>0.003880436975141929</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H14">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I14">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J14">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>723.9882859663837</v>
+        <v>1059.144869427894</v>
       </c>
       <c r="R14">
-        <v>723.9882859663837</v>
+        <v>6354.869216567363</v>
       </c>
       <c r="S14">
-        <v>0.001969039015425619</v>
+        <v>0.002343325245369728</v>
       </c>
       <c r="T14">
-        <v>0.001969039015425619</v>
+        <v>0.001648084397105329</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H15">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I15">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J15">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>52048.89832653065</v>
+        <v>73280.67233642533</v>
       </c>
       <c r="R15">
-        <v>52048.89832653065</v>
+        <v>659526.051027828</v>
       </c>
       <c r="S15">
-        <v>0.1415579692398762</v>
+        <v>0.162131219666266</v>
       </c>
       <c r="T15">
-        <v>0.1415579692398762</v>
+        <v>0.1710427952395509</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H16">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I16">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J16">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>72912.13521518884</v>
+        <v>97757.44938651024</v>
       </c>
       <c r="R16">
-        <v>72912.13521518884</v>
+        <v>879817.0444785921</v>
       </c>
       <c r="S16">
-        <v>0.1982999472775464</v>
+        <v>0.2162853313863486</v>
       </c>
       <c r="T16">
-        <v>0.1982999472775464</v>
+        <v>0.2281734987609596</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H17">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I17">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J17">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>55299.28118300546</v>
+        <v>75331.96871050487</v>
       </c>
       <c r="R17">
-        <v>55299.28118300546</v>
+        <v>677987.7183945439</v>
       </c>
       <c r="S17">
-        <v>0.1503980717436434</v>
+        <v>0.1666696494107376</v>
       </c>
       <c r="T17">
-        <v>0.1503980717436434</v>
+        <v>0.1758306807010346</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H18">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I18">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J18">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>1962.540847884404</v>
+        <v>3280.554534251598</v>
       </c>
       <c r="R18">
-        <v>1962.540847884404</v>
+        <v>29524.99080826439</v>
       </c>
       <c r="S18">
-        <v>0.005337544230695324</v>
+        <v>0.007258125380974861</v>
       </c>
       <c r="T18">
-        <v>0.005337544230695324</v>
+        <v>0.007657069723625681</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H19">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I19">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J19">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>11857.64931757193</v>
+        <v>15718.06755030748</v>
       </c>
       <c r="R19">
-        <v>11857.64931757193</v>
+        <v>94308.40530184486</v>
       </c>
       <c r="S19">
-        <v>0.03224938108821584</v>
+        <v>0.03477573801491164</v>
       </c>
       <c r="T19">
-        <v>0.03224938108821584</v>
+        <v>0.02445812903413485</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H20">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I20">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J20">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>324.7533429187913</v>
+        <v>366.4191702365632</v>
       </c>
       <c r="R20">
-        <v>324.7533429187913</v>
+        <v>2198.51502141938</v>
       </c>
       <c r="S20">
-        <v>0.000883235288459745</v>
+        <v>0.0008106910742687806</v>
       </c>
       <c r="T20">
-        <v>0.000883235288459745</v>
+        <v>0.0005701672497298294</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H21">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I21">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J21">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>23347.13703857627</v>
+        <v>25352.0022868963</v>
       </c>
       <c r="R21">
-        <v>23347.13703857627</v>
+        <v>228168.0205820667</v>
       </c>
       <c r="S21">
-        <v>0.06349746897642455</v>
+        <v>0.05609052047020244</v>
       </c>
       <c r="T21">
-        <v>0.06349746897642455</v>
+        <v>0.05917354737362055</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H22">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I22">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J22">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>32705.5839292667</v>
+        <v>33819.92824833915</v>
       </c>
       <c r="R22">
-        <v>32705.5839292667</v>
+        <v>304379.3542350524</v>
       </c>
       <c r="S22">
-        <v>0.08894974135257407</v>
+        <v>0.07482554459592869</v>
       </c>
       <c r="T22">
-        <v>0.08894974135257407</v>
+        <v>0.07893834592346693</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H23">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I23">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J23">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>24805.13396872984</v>
+        <v>26061.66376663843</v>
       </c>
       <c r="R23">
-        <v>24805.13396872984</v>
+        <v>234554.9738997459</v>
       </c>
       <c r="S23">
-        <v>0.06746279948727822</v>
+        <v>0.05766062453164633</v>
       </c>
       <c r="T23">
-        <v>0.06746279948727822</v>
+        <v>0.06082995252519551</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H24">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I24">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J24">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>880.3204600395046</v>
+        <v>1134.932628249021</v>
       </c>
       <c r="R24">
-        <v>880.3204600395046</v>
+        <v>10214.39365424119</v>
       </c>
       <c r="S24">
-        <v>0.002394217372704424</v>
+        <v>0.002511003316294501</v>
       </c>
       <c r="T24">
-        <v>0.002394217372704424</v>
+        <v>0.002649021125967361</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H25">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I25">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J25">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>5318.886133496101</v>
+        <v>5437.784231175954</v>
       </c>
       <c r="R25">
-        <v>5318.886133496101</v>
+        <v>32626.70538705573</v>
       </c>
       <c r="S25">
-        <v>0.01446583393470323</v>
+        <v>0.01203092932383367</v>
       </c>
       <c r="T25">
-        <v>0.01446583393470323</v>
+        <v>0.008461474539424765</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H26">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I26">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J26">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>28.02549728663574</v>
+        <v>31.89441403061933</v>
       </c>
       <c r="R26">
-        <v>28.02549728663574</v>
+        <v>191.366484183716</v>
       </c>
       <c r="S26">
-        <v>7.622125751721468E-05</v>
+        <v>7.056540397971775E-05</v>
       </c>
       <c r="T26">
-        <v>7.622125751721468E-05</v>
+        <v>4.962936387264406E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H27">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I27">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J27">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>2014.80643692389</v>
+        <v>2206.727494419705</v>
       </c>
       <c r="R27">
-        <v>2014.80643692389</v>
+        <v>19860.54744977735</v>
       </c>
       <c r="S27">
-        <v>0.005479691536083808</v>
+        <v>0.004882316287967654</v>
       </c>
       <c r="T27">
-        <v>0.005479691536083808</v>
+        <v>0.005150673799016195</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H28">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I28">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J28">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>2822.419764580241</v>
+        <v>2943.80556929369</v>
       </c>
       <c r="R28">
-        <v>2822.419764580241</v>
+        <v>26494.25012364321</v>
       </c>
       <c r="S28">
-        <v>0.007676166509999211</v>
+        <v>0.006513078717656518</v>
       </c>
       <c r="T28">
-        <v>0.007676166509999211</v>
+        <v>0.006871071418424596</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H29">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I29">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J29">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>2140.628356546623</v>
+        <v>2268.498926962017</v>
       </c>
       <c r="R29">
-        <v>2140.628356546623</v>
+        <v>20416.49034265815</v>
       </c>
       <c r="S29">
-        <v>0.005821890814076562</v>
+        <v>0.005018983670775486</v>
       </c>
       <c r="T29">
-        <v>0.005821890814076562</v>
+        <v>0.005294853132408263</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H30">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I30">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J30">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>75.96971425287673</v>
+        <v>98.78852986557314</v>
       </c>
       <c r="R30">
-        <v>75.96971425287673</v>
+        <v>889.0967687901582</v>
       </c>
       <c r="S30">
-        <v>0.0002066156790851664</v>
+        <v>0.0002185665650365678</v>
       </c>
       <c r="T30">
-        <v>0.0002066156790851664</v>
+        <v>0.0002305801208842693</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H31">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I31">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J31">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N31">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O31">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P31">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q31">
-        <v>459.0081431109237</v>
+        <v>473.3238754029378</v>
       </c>
       <c r="R31">
-        <v>459.0081431109237</v>
+        <v>2839.943252417627</v>
       </c>
       <c r="S31">
-        <v>0.001248369565782506</v>
+        <v>0.001047214425980327</v>
       </c>
       <c r="T31">
-        <v>0.001248369565782506</v>
+        <v>0.0007365165203985499</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H32">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I32">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J32">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N32">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O32">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P32">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q32">
-        <v>94.85372599715883</v>
+        <v>107.402823875025</v>
       </c>
       <c r="R32">
-        <v>94.85372599715883</v>
+        <v>429.6112955001</v>
       </c>
       <c r="S32">
-        <v>0.0002579747364249057</v>
+        <v>0.0002376254239387399</v>
       </c>
       <c r="T32">
-        <v>0.0002579747364249057</v>
+        <v>0.0001114162461578357</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H33">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I33">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J33">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N33">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P33">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q33">
-        <v>6819.215222147881</v>
+        <v>7431.043072175623</v>
       </c>
       <c r="R33">
-        <v>6819.215222147881</v>
+        <v>44586.25843305374</v>
       </c>
       <c r="S33">
-        <v>0.0185462956891224</v>
+        <v>0.01644095282250192</v>
       </c>
       <c r="T33">
-        <v>0.0185462956891224</v>
+        <v>0.01156308876620968</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H34">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I34">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J34">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N34">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O34">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P34">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q34">
-        <v>9552.623750448971</v>
+        <v>9913.116158134613</v>
       </c>
       <c r="R34">
-        <v>9552.623750448971</v>
+        <v>59478.69694880768</v>
       </c>
       <c r="S34">
-        <v>0.02598037734713956</v>
+        <v>0.02193246271040061</v>
       </c>
       <c r="T34">
-        <v>0.02598037734713956</v>
+        <v>0.01542532333252892</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H35">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I35">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J35">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N35">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O35">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P35">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q35">
-        <v>7245.065931102916</v>
+        <v>7639.055242691775</v>
       </c>
       <c r="R35">
-        <v>7245.065931102916</v>
+        <v>45834.33145615065</v>
       </c>
       <c r="S35">
-        <v>0.01970448661145185</v>
+        <v>0.01690117331224281</v>
       </c>
       <c r="T35">
-        <v>0.01970448661145185</v>
+        <v>0.01188676650145742</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H36">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I36">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J36">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N36">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O36">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P36">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q36">
-        <v>257.1233754079035</v>
+        <v>332.6653709279251</v>
       </c>
       <c r="R36">
-        <v>257.1233754079035</v>
+        <v>1995.99222556755</v>
       </c>
       <c r="S36">
-        <v>0.0006993013115955279</v>
+        <v>0.000736011837905393</v>
       </c>
       <c r="T36">
-        <v>0.0006993013115955279</v>
+        <v>0.0005176445858437835</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51.8525874170115</v>
+        <v>53.1948375</v>
       </c>
       <c r="H37">
-        <v>51.8525874170115</v>
+        <v>106.389675</v>
       </c>
       <c r="I37">
-        <v>0.06941360620831573</v>
+        <v>0.05977466764766092</v>
       </c>
       <c r="J37">
-        <v>0.06941360620831573</v>
+        <v>0.0411576941520005</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N37">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O37">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P37">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q37">
-        <v>1553.536488284549</v>
+        <v>1593.894177737269</v>
       </c>
       <c r="R37">
-        <v>1553.536488284549</v>
+        <v>6375.576710949074</v>
       </c>
       <c r="S37">
-        <v>0.004225170512581492</v>
+        <v>0.003526441540671452</v>
       </c>
       <c r="T37">
-        <v>0.004225170512581492</v>
+        <v>0.001653454719802872</v>
       </c>
     </row>
   </sheetData>
